--- a/Qmini Printing Hours.xlsx
+++ b/Qmini Printing Hours.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Desktop/Qmini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF558A81-63B9-674D-93B7-196059C1E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2664EA-02A1-BB48-880A-47CFEB439A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21460" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
+    <workbookView xWindow="8780" yWindow="1520" windowWidth="46760" windowHeight="37600" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Right Foot A</t>
   </si>
@@ -158,9 +158,6 @@
     <t>PANEL</t>
   </si>
   <si>
-    <t>Panel Top Rrear</t>
-  </si>
-  <si>
     <t>Panel Top Front</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Antenna Right</t>
   </si>
   <si>
-    <t>100%%</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>M3 x 6</t>
   </si>
   <si>
-    <t>M4 x 8</t>
-  </si>
-  <si>
     <t>Battery Pack 电池仓</t>
   </si>
   <si>
@@ -213,6 +204,15 @@
   </si>
   <si>
     <t>Left Foot Pad 足底</t>
+  </si>
+  <si>
+    <t>M4 (6x6) x 8</t>
+  </si>
+  <si>
+    <t>Panel Top Rear</t>
+  </si>
+  <si>
+    <t>ABS-HF / Nylon 3201PA-F</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,8 +264,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +293,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -299,11 +324,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,44 +386,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BE0F49-92DE-F34E-B54B-F98DD53080BB}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -696,137 +825,143 @@
     <col min="2" max="2" width="31.83203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="31.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12">
+        <v>35</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="12">
+        <v>72</v>
+      </c>
+      <c r="F5" s="13">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>168.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="1">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1">
-        <v>72</v>
-      </c>
-      <c r="F5" s="3">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>168.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
         <v>1048</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25">
         <v>0</v>
       </c>
     </row>
@@ -834,27 +969,31 @@
       <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="17">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24">
         <v>6</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="25">
         <v>0</v>
       </c>
     </row>
@@ -862,13 +1001,15 @@
       <c r="A11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
         <v>2.1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="17">
         <v>0</v>
       </c>
     </row>
@@ -876,61 +1017,83 @@
       <c r="A12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="16">
         <v>2.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="F18" s="3">
+      <c r="D18" s="18"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17">
         <v>30</v>
       </c>
     </row>
@@ -938,14 +1101,15 @@
       <c r="A19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="F19" s="3">
+      <c r="D19" s="18"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17">
         <v>30</v>
       </c>
     </row>
@@ -953,19 +1117,19 @@
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18">
         <v>0.4</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="16">
         <v>13</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="17">
         <v>0</v>
       </c>
     </row>
@@ -973,19 +1137,19 @@
       <c r="A21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="18">
         <v>0.4</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="16">
         <v>13</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="17">
         <v>0</v>
       </c>
     </row>
@@ -993,14 +1157,15 @@
       <c r="A22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="F22" s="3">
+      <c r="D22" s="18"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17">
         <v>178</v>
       </c>
     </row>
@@ -1008,14 +1173,15 @@
       <c r="A23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="18">
         <v>1</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="F23" s="3">
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17">
         <v>178</v>
       </c>
     </row>
@@ -1023,19 +1189,19 @@
       <c r="A24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="18">
         <v>0.4</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="16">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1043,71 +1209,77 @@
       <c r="A25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="18">
         <v>0.4</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="16">
         <v>8</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="B27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>4.3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
+      <c r="B28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="F28" s="13">
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="B29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
         <v>11.55</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1115,58 +1287,71 @@
       <c r="A30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17">
         <v>126.89</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="3"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="B32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
         <v>4.3</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
+      <c r="B33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12">
+        <v>9.4</v>
+      </c>
+      <c r="F33" s="13">
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="B34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12">
         <v>11.55</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="13">
         <v>0</v>
       </c>
     </row>
@@ -1174,197 +1359,220 @@
       <c r="A35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17">
         <v>126.89</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="A37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="12">
         <v>10.36</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="B38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12">
         <v>5.4</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="12">
+        <v>10.36</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12">
+        <v>5.4</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="17">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="23">
+        <v>1</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0</v>
+      </c>
+      <c r="F44" s="25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="1">
-        <v>10.36</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="23">
         <v>1</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>212</v>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24">
+        <v>0</v>
+      </c>
+      <c r="F45" s="25">
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="23">
         <v>1</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="3">
+      <c r="C47" s="23">
+        <v>1</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="1">
-        <f>SUM(E3:E48)</f>
-        <v>243.82000000000002</v>
-      </c>
-      <c r="F49" s="3">
-        <f>SUM(F3:F48)</f>
-        <v>3721.2299999999996</v>
+    <row r="48" spans="1:6" ht="58" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32">
+        <f>SUM(E3:E47)</f>
+        <v>262.62</v>
+      </c>
+      <c r="F48" s="33">
+        <f>SUM(F3:F47)</f>
+        <v>4358.2299999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Qmini Printing Hours.xlsx
+++ b/Qmini Printing Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2664EA-02A1-BB48-880A-47CFEB439A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EF4CB-FFB2-204F-9AFD-FC2AA43AB874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8780" yWindow="1520" windowWidth="46760" windowHeight="37600" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F28"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1340,18 +1340,18 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12">
+      <c r="B34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16">
         <v>11.55</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="17">
         <v>0</v>
       </c>
     </row>

--- a/Qmini Printing Hours.xlsx
+++ b/Qmini Printing Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/GitHub/Unitree-Qmini-Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7EF4CB-FFB2-204F-9AFD-FC2AA43AB874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D1BDE3-D3FA-C549-924F-BFDA5E4BA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8780" yWindow="1520" windowWidth="46760" windowHeight="37600" xr2:uid="{AB9389B4-2FA2-4848-9210-F8543C78B964}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
